--- a/docs/test.xlsx
+++ b/docs/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12160" activeTab="1"/>
+    <workbookView windowHeight="17880"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>field1</t>
   </si>
@@ -29,6 +29,12 @@
     <t>field3:#sheet2.s2Field1</t>
   </si>
   <si>
+    <t>field4</t>
+  </si>
+  <si>
+    <t>field5</t>
+  </si>
+  <si>
     <t>字段1</t>
   </si>
   <si>
@@ -41,6 +47,12 @@
     <t>关联字段</t>
   </si>
   <si>
+    <t>json1</t>
+  </si>
+  <si>
+    <t>json2</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -48,6 +60,21 @@
   </si>
   <si>
     <t>array</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+  </si>
+  <si>
+    <t>{"a":"b"}</t>
+  </si>
+  <si>
+    <t>["a","b","c","d"]</t>
+  </si>
+  <si>
+    <t>{"c":"d"}</t>
   </si>
   <si>
     <t>s2Field1</t>
@@ -88,12 +115,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,48 +136,117 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,94 +259,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,13 +289,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,19 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,133 +457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,30 +501,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -516,6 +511,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -547,169 +566,169 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,13 +739,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1070,109 +1082,118 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="14.7321428571429" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.9196428571429" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="29.125" customWidth="1"/>
-    <col min="8" max="8" width="25.375" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.7321428571429" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.9196428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="3" customWidth="1"/>
+    <col min="5" max="6" width="13.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="30" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1" s="1"/>
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2" s="5"/>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" s="1"/>
-      <c r="H3"/>
-      <c r="I3"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" s="6"/>
-      <c r="H4" s="1"/>
-      <c r="I4"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5"/>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1185,7 +1206,7 @@
   <sheetPr/>
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1199,13 +1220,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1213,13 +1234,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1227,13 +1248,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1247,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1259,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -1271,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -1283,49 +1304,42 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" ht="17.6" spans="1:4">
       <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
       <c r="C8"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" ht="17.6" spans="1:4">
       <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
       <c r="C9"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" ht="17.6" spans="1:4">
       <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
       <c r="C10"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" ht="17.6" spans="1:4">
       <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
       <c r="C11"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" ht="17.6" spans="1:4">
       <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
       <c r="C12"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" ht="17.6" spans="1:4">
       <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
       <c r="C13"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" ht="17.6" spans="1:4">
       <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
       <c r="C14"/>
       <c r="D14" s="2"/>
     </row>
